--- a/WebAplicationTestMVCSOL/WebAplicationTestMVC/Data/Jokes.xlsx
+++ b/WebAplicationTestMVCSOL/WebAplicationTestMVC/Data/Jokes.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>ID</t>
   </si>
@@ -41,13 +41,32 @@
   </si>
   <si>
     <t>answer text</t>
+  </si>
+  <si>
+    <t>2023-10-07 23:12:07 36_12_6534199</t>
+  </si>
+  <si>
+    <t>What do you call a cow with no legs?</t>
+  </si>
+  <si>
+    <t>Ground beef!</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="12">
+  <numFmts count="22">
+    <numFmt numFmtId="0" formatCode="General"/>
+    <numFmt numFmtId="0" formatCode="General"/>
+    <numFmt numFmtId="0" formatCode="General"/>
+    <numFmt numFmtId="0" formatCode="General"/>
+    <numFmt numFmtId="0" formatCode="General"/>
+    <numFmt numFmtId="0" formatCode="General"/>
+    <numFmt numFmtId="0" formatCode="General"/>
+    <numFmt numFmtId="0" formatCode="General"/>
+    <numFmt numFmtId="0" formatCode="General"/>
+    <numFmt numFmtId="0" formatCode="General"/>
     <numFmt numFmtId="0" formatCode="General"/>
     <numFmt numFmtId="0" formatCode="General"/>
     <numFmt numFmtId="0" formatCode="General"/>
@@ -120,7 +139,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:C5"/>
@@ -183,6 +202,17 @@
         <v>6</v>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>

--- a/WebAplicationTestMVCSOL/WebAplicationTestMVC/Data/Jokes.xlsx
+++ b/WebAplicationTestMVCSOL/WebAplicationTestMVC/Data/Jokes.xlsx
@@ -13,22 +13,31 @@
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001" fullCalcOnLoad="1"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
+      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
-  <si>
-    <t>ID</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+  <si>
+    <t>Id</t>
   </si>
   <si>
     <t>Question</t>
   </si>
   <si>
     <t>Answer</t>
+  </si>
+  <si>
+    <t>2023-10-08 02:34:14 9_4_3835979</t>
+  </si>
+  <si>
+    <t>test test</t>
+  </si>
+  <si>
+    <t>test</t>
   </si>
   <si>
     <t>Why did the chicken cross the road?</t>
@@ -56,36 +65,15 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="22">
-    <numFmt numFmtId="0" formatCode="General"/>
-    <numFmt numFmtId="0" formatCode="General"/>
-    <numFmt numFmtId="0" formatCode="General"/>
-    <numFmt numFmtId="0" formatCode="General"/>
-    <numFmt numFmtId="0" formatCode="General"/>
-    <numFmt numFmtId="0" formatCode="General"/>
-    <numFmt numFmtId="0" formatCode="General"/>
-    <numFmt numFmtId="0" formatCode="General"/>
-    <numFmt numFmtId="0" formatCode="General"/>
-    <numFmt numFmtId="0" formatCode="General"/>
-    <numFmt numFmtId="0" formatCode="General"/>
-    <numFmt numFmtId="0" formatCode="General"/>
-    <numFmt numFmtId="0" formatCode="General"/>
-    <numFmt numFmtId="0" formatCode="General"/>
-    <numFmt numFmtId="0" formatCode="General"/>
-    <numFmt numFmtId="0" formatCode="General"/>
-    <numFmt numFmtId="0" formatCode="General"/>
-    <numFmt numFmtId="0" formatCode="General"/>
-    <numFmt numFmtId="0" formatCode="General"/>
-    <numFmt numFmtId="0" formatCode="General"/>
+  <numFmts count="2">
     <numFmt numFmtId="0" formatCode="General"/>
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
@@ -93,6 +81,13 @@
       <name val="Arial"/>
       <family val="0"/>
       <charset val="186"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -120,8 +115,10 @@
     <xf numFmtId="42" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0"/>
     <xf numFmtId="9" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="164" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1"/>
+    <xf numFmtId="164" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" borderId="0" applyBorder="0" xfId="0" applyProtection="0" applyAlignment="0"/>
+    <xf numFmtId="164" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -139,83 +136,94 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:C5"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" ht="13.8">
-      <c r="A1" s="0" t="s">
+    <row r="1" ht="15">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" ht="15">
-      <c r="A2" s="0">
-        <v>2</v>
-      </c>
-      <c r="B2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" ht="15">
-      <c r="A3" s="0">
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" ht="13.8">
+      <c r="A3" s="2">
+        <v>1656</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>6</v>
+      <c r="C3" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="4" ht="13.8">
-      <c r="A4" s="0">
+      <c r="A4" s="2">
+        <v>2315</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>6</v>
+      <c r="C4" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="5" ht="13.8">
-      <c r="A5" s="0">
-        <v>4</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="0" t="s">
+      <c r="A5" s="2">
+        <v>15959</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C5" s="2" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="6" ht="13.8">
+      <c r="A6" s="2">
+        <v>65</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" ht="13.8">
+      <c r="A7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>

--- a/WebAplicationTestMVCSOL/WebAplicationTestMVC/Data/Jokes.xlsx
+++ b/WebAplicationTestMVCSOL/WebAplicationTestMVC/Data/Jokes.xlsx
@@ -65,7 +65,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
+    <numFmt numFmtId="0" formatCode="General"/>
     <numFmt numFmtId="0" formatCode="General"/>
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>

--- a/WebAplicationTestMVCSOL/WebAplicationTestMVC/Data/Jokes.xlsx
+++ b/WebAplicationTestMVCSOL/WebAplicationTestMVC/Data/Jokes.xlsx
@@ -65,7 +65,30 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="26">
+    <numFmt numFmtId="0" formatCode="General"/>
+    <numFmt numFmtId="0" formatCode="General"/>
+    <numFmt numFmtId="0" formatCode="General"/>
+    <numFmt numFmtId="0" formatCode="General"/>
+    <numFmt numFmtId="0" formatCode="General"/>
+    <numFmt numFmtId="0" formatCode="General"/>
+    <numFmt numFmtId="0" formatCode="General"/>
+    <numFmt numFmtId="0" formatCode="General"/>
+    <numFmt numFmtId="0" formatCode="General"/>
+    <numFmt numFmtId="0" formatCode="General"/>
+    <numFmt numFmtId="0" formatCode="General"/>
+    <numFmt numFmtId="0" formatCode="General"/>
+    <numFmt numFmtId="0" formatCode="General"/>
+    <numFmt numFmtId="0" formatCode="General"/>
+    <numFmt numFmtId="0" formatCode="General"/>
+    <numFmt numFmtId="0" formatCode="General"/>
+    <numFmt numFmtId="0" formatCode="General"/>
+    <numFmt numFmtId="0" formatCode="General"/>
+    <numFmt numFmtId="0" formatCode="General"/>
+    <numFmt numFmtId="0" formatCode="General"/>
+    <numFmt numFmtId="0" formatCode="General"/>
+    <numFmt numFmtId="0" formatCode="General"/>
+    <numFmt numFmtId="0" formatCode="General"/>
     <numFmt numFmtId="0" formatCode="General"/>
     <numFmt numFmtId="0" formatCode="General"/>
     <numFmt numFmtId="164" formatCode="General"/>

--- a/WebAplicationTestMVCSOL/WebAplicationTestMVC/Data/Jokes.xlsx
+++ b/WebAplicationTestMVCSOL/WebAplicationTestMVC/Data/Jokes.xlsx
@@ -65,7 +65,14 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="26">
+  <numFmts count="33">
+    <numFmt numFmtId="0" formatCode="General"/>
+    <numFmt numFmtId="0" formatCode="General"/>
+    <numFmt numFmtId="0" formatCode="General"/>
+    <numFmt numFmtId="0" formatCode="General"/>
+    <numFmt numFmtId="0" formatCode="General"/>
+    <numFmt numFmtId="0" formatCode="General"/>
+    <numFmt numFmtId="0" formatCode="General"/>
     <numFmt numFmtId="0" formatCode="General"/>
     <numFmt numFmtId="0" formatCode="General"/>
     <numFmt numFmtId="0" formatCode="General"/>

--- a/WebAplicationTestMVCSOL/WebAplicationTestMVC/Data/Jokes.xlsx
+++ b/WebAplicationTestMVCSOL/WebAplicationTestMVC/Data/Jokes.xlsx
@@ -65,7 +65,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="33">
+  <numFmts count="35">
+    <numFmt numFmtId="0" formatCode="General"/>
+    <numFmt numFmtId="0" formatCode="General"/>
     <numFmt numFmtId="0" formatCode="General"/>
     <numFmt numFmtId="0" formatCode="General"/>
     <numFmt numFmtId="0" formatCode="General"/>

--- a/WebAplicationTestMVCSOL/WebAplicationTestMVC/Data/Jokes.xlsx
+++ b/WebAplicationTestMVCSOL/WebAplicationTestMVC/Data/Jokes.xlsx
@@ -65,7 +65,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="35">
+  <numFmts count="38">
+    <numFmt numFmtId="0" formatCode="General"/>
+    <numFmt numFmtId="0" formatCode="General"/>
+    <numFmt numFmtId="0" formatCode="General"/>
     <numFmt numFmtId="0" formatCode="General"/>
     <numFmt numFmtId="0" formatCode="General"/>
     <numFmt numFmtId="0" formatCode="General"/>

--- a/WebAplicationTestMVCSOL/WebAplicationTestMVC/Data/Jokes.xlsx
+++ b/WebAplicationTestMVCSOL/WebAplicationTestMVC/Data/Jokes.xlsx
@@ -65,7 +65,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="33">
+  <numFmts count="38">
+    <numFmt numFmtId="0" formatCode="General"/>
+    <numFmt numFmtId="0" formatCode="General"/>
+    <numFmt numFmtId="0" formatCode="General"/>
+    <numFmt numFmtId="0" formatCode="General"/>
+    <numFmt numFmtId="0" formatCode="General"/>
     <numFmt numFmtId="0" formatCode="General"/>
     <numFmt numFmtId="0" formatCode="General"/>
     <numFmt numFmtId="0" formatCode="General"/>

--- a/WebAplicationTestMVCSOL/WebAplicationTestMVC/Data/Jokes.xlsx
+++ b/WebAplicationTestMVCSOL/WebAplicationTestMVC/Data/Jokes.xlsx
@@ -65,7 +65,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="38">
+  <numFmts count="39">
+    <numFmt numFmtId="0" formatCode="General"/>
     <numFmt numFmtId="0" formatCode="General"/>
     <numFmt numFmtId="0" formatCode="General"/>
     <numFmt numFmtId="0" formatCode="General"/>

--- a/WebAplicationTestMVCSOL/WebAplicationTestMVC/Data/Jokes.xlsx
+++ b/WebAplicationTestMVCSOL/WebAplicationTestMVC/Data/Jokes.xlsx
@@ -65,7 +65,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="39">
+  <numFmts count="41">
+    <numFmt numFmtId="0" formatCode="General"/>
+    <numFmt numFmtId="0" formatCode="General"/>
     <numFmt numFmtId="0" formatCode="General"/>
     <numFmt numFmtId="0" formatCode="General"/>
     <numFmt numFmtId="0" formatCode="General"/>

--- a/WebAplicationTestMVCSOL/WebAplicationTestMVC/Data/Jokes.xlsx
+++ b/WebAplicationTestMVCSOL/WebAplicationTestMVC/Data/Jokes.xlsx
@@ -65,7 +65,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="41">
+  <numFmts count="46">
+    <numFmt numFmtId="0" formatCode="General"/>
+    <numFmt numFmtId="0" formatCode="General"/>
+    <numFmt numFmtId="0" formatCode="General"/>
+    <numFmt numFmtId="0" formatCode="General"/>
+    <numFmt numFmtId="0" formatCode="General"/>
     <numFmt numFmtId="0" formatCode="General"/>
     <numFmt numFmtId="0" formatCode="General"/>
     <numFmt numFmtId="0" formatCode="General"/>
